--- a/1. Project management/5. Change management plan/AS_PM_Change Request Log.xlsx
+++ b/1. Project management/5. Change management plan/AS_PM_Change Request Log.xlsx
@@ -460,7 +460,7 @@
   <dimension ref="A1:X30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
